--- a/data/José OlivasT2-2024.xlsx
+++ b/data/José OlivasT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>898.10367075</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -615,7 +617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,6 +630,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -635,6 +639,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -642,6 +647,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -972,6 +978,7 @@
         <v>0.00134647</v>
       </c>
     </row>
+    <row r="33"/>
     <row r="34">
       <c r="C34" s="6" t="inlineStr">
         <is>
@@ -997,7 +1004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,6 +1017,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1017,6 +1026,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1024,6 +1034,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1107,6 +1118,7 @@
         <v>3.15e-06</v>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="C15" s="6" t="inlineStr">
         <is>

--- a/data/José OlivasT2-2024.xlsx
+++ b/data/José OlivasT2-2024.xlsx
@@ -67,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -88,6 +88,8 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -452,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="C3:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,8 +468,6 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -475,7 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -483,7 +482,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -537,6 +535,8 @@
       <c r="F10" s="11" t="n">
         <v>898.10367075</v>
       </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -617,7 +617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="C3:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,8 +630,6 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -639,7 +637,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -647,7 +644,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -978,7 +974,6 @@
         <v>0.00134647</v>
       </c>
     </row>
-    <row r="33"/>
     <row r="34">
       <c r="C34" s="6" t="inlineStr">
         <is>
@@ -1004,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="C3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,8 +1012,6 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1026,7 +1019,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,7 +1026,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1118,7 +1109,6 @@
         <v>3.15e-06</v>
       </c>
     </row>
-    <row r="14"/>
     <row r="15">
       <c r="C15" s="6" t="inlineStr">
         <is>
